--- a/用例数据/期货市场/冲抵保证金/测试结果.xlsx
+++ b/用例数据/期货市场/冲抵保证金/测试结果.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\source\用例数据\期货市场\冲抵保证金\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="20880" windowHeight="9384"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20880" windowHeight="9390"/>
   </bookViews>
   <sheets>
     <sheet name="futuretradinglog" sheetId="1" r:id="rId1"/>
     <sheet name="FutureClientCapitalDetail" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="exchfutmortgagedata" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">futuretradinglog!$A$1:$CX$9</definedName>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1025" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1047" uniqueCount="321">
   <si>
     <t>SERIALNUM</t>
   </si>
@@ -480,494 +486,522 @@
     <t xml:space="preserve">   </t>
   </si>
   <si>
+    <t>EXCHTYPE</t>
+  </si>
+  <si>
+    <t>A004</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>A005</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>ACCTPWD</t>
+  </si>
+  <si>
+    <t>MAINACCTFLAG</t>
+  </si>
+  <si>
+    <t>STKVALUE</t>
+  </si>
+  <si>
+    <t>MINMARGIN</t>
+  </si>
+  <si>
+    <t>PREVIOUSAMT</t>
+  </si>
+  <si>
+    <t>CURRENTAMT</t>
+  </si>
+  <si>
+    <t>CURRENTAMTCHKSUM</t>
+  </si>
+  <si>
+    <t>USABLEAMT</t>
+  </si>
+  <si>
+    <t>TRADEFROZENAMT</t>
+  </si>
+  <si>
+    <t>EXCEPTFROZENAMT</t>
+  </si>
+  <si>
+    <t>UNCOMEAMT</t>
+  </si>
+  <si>
+    <t>UNDELIVERYFUNDUSEFLAG</t>
+  </si>
+  <si>
+    <t>CHKAMT</t>
+  </si>
+  <si>
+    <t>CHECKASCASHAMT</t>
+  </si>
+  <si>
+    <t>FINANCEAMT</t>
+  </si>
+  <si>
+    <t>OVERDRAFTLIMIT</t>
+  </si>
+  <si>
+    <t>OVERDRAFTINTEREST</t>
+  </si>
+  <si>
+    <t>OVERDRAFTINTERESTRATE</t>
+  </si>
+  <si>
+    <t>CHKSAVESUM</t>
+  </si>
+  <si>
+    <t>CHKFETCHSUM</t>
+  </si>
+  <si>
+    <t>CASHSAVESUM</t>
+  </si>
+  <si>
+    <t>CASHFETCHSUM</t>
+  </si>
+  <si>
+    <t>LASTMODDATE</t>
+  </si>
+  <si>
+    <t>LASTPRINTDATE</t>
+  </si>
+  <si>
+    <t>FETCHMETHOD</t>
+  </si>
+  <si>
+    <t>DEPOSITRATE</t>
+  </si>
+  <si>
+    <t>RATEFLAG</t>
+  </si>
+  <si>
+    <t>INTEREST</t>
+  </si>
+  <si>
+    <t>INTERESTCOMPUTEDATE</t>
+  </si>
+  <si>
+    <t>INTERESTRATE</t>
+  </si>
+  <si>
+    <t>COOPPURCHASEFLAG</t>
+  </si>
+  <si>
+    <t>ACCTSTATUS</t>
+  </si>
+  <si>
+    <t>ACCTPERMITLIST</t>
+  </si>
+  <si>
+    <t>PERMITMAC</t>
+  </si>
+  <si>
+    <t>PERMITPHONE</t>
+  </si>
+  <si>
+    <t>BANKMORTGAGELOANAMT</t>
+  </si>
+  <si>
+    <t>EXCEPTIONINTERESTAMT</t>
+  </si>
+  <si>
+    <t>LOGOUTDATE</t>
+  </si>
+  <si>
+    <t>MAGCARDID</t>
+  </si>
+  <si>
+    <t>EXTMAGCARDID</t>
+  </si>
+  <si>
+    <t>MAGCARDUSEDFLAG</t>
+  </si>
+  <si>
+    <t>UNLOCKDATE</t>
+  </si>
+  <si>
+    <t>INTERESTTYPEID</t>
+  </si>
+  <si>
+    <t>BEGININTERESTDATE</t>
+  </si>
+  <si>
+    <t>ENDINTERESTDATE</t>
+  </si>
+  <si>
+    <t>TRADECHECKFLAG</t>
+  </si>
+  <si>
+    <t>RECKONINGCHECKFLAG</t>
+  </si>
+  <si>
+    <t>NEEDSETTLEAMT</t>
+  </si>
+  <si>
+    <t>ACCUREDINTERESTAMT</t>
+  </si>
+  <si>
+    <t>INTERESTAMOUNT</t>
+  </si>
+  <si>
+    <t>LOGINERRORCOUNT</t>
+  </si>
+  <si>
+    <t>CREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>SHTRADENETAMT</t>
+  </si>
+  <si>
+    <t>SZTRADENETAMT</t>
+  </si>
+  <si>
+    <t>YDMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>MARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>REALTIMEAMT</t>
+  </si>
+  <si>
+    <t>CASHMOVEMENTAMT</t>
+  </si>
+  <si>
+    <t>COMMISION</t>
+  </si>
+  <si>
+    <t>PLEDGEAMT</t>
+  </si>
+  <si>
+    <t>ACCTATRISKLEVEL</t>
+  </si>
+  <si>
+    <t>CUSTBRANCHID</t>
+  </si>
+  <si>
+    <t>EVERYRIGHTS</t>
+  </si>
+  <si>
+    <t>EVERYCURRENTAMT</t>
+  </si>
+  <si>
+    <t>EXCHMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>EXCHMORTGAGEUSABLEAMT</t>
+  </si>
+  <si>
+    <t>MORTGAGEUSABLEAMT</t>
+  </si>
+  <si>
+    <t>BASEMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>CONTRACTAMTTOTAL</t>
+  </si>
+  <si>
+    <t>YDEXCHMORTGAGEUSABLEAMT</t>
+  </si>
+  <si>
+    <t>YDMORTGAGEUSABLEAMT</t>
+  </si>
+  <si>
+    <t>CONTRACTINTERESTAMOUNT</t>
+  </si>
+  <si>
+    <t>POSITIONCONTRACTAMT</t>
+  </si>
+  <si>
+    <t>BEGININGAMT</t>
+  </si>
+  <si>
+    <t>BUYTRADEFROZENAMT</t>
+  </si>
+  <si>
+    <t>SUBCUSTODYFLAG</t>
+  </si>
+  <si>
+    <t>MAINACCTID</t>
+  </si>
+  <si>
+    <t>ECONTRACTSIGNFLAG</t>
+  </si>
+  <si>
+    <t>TUSABLEAMT</t>
+  </si>
+  <si>
+    <t>TODAYREPOAMT</t>
+  </si>
+  <si>
+    <t>REPOAMT</t>
+  </si>
+  <si>
+    <t>ASSETAMT</t>
+  </si>
+  <si>
+    <t>LEVEL2FLAG</t>
+  </si>
+  <si>
+    <t>MULTINSTANCEID</t>
+  </si>
+  <si>
+    <t>DELIVERYMARGINAMT</t>
+  </si>
+  <si>
+    <t>DELIVERYCOMMISION</t>
+  </si>
+  <si>
+    <t>EXCHANGETOTALAMT</t>
+  </si>
+  <si>
+    <t>EXCHANGEUSEAMT</t>
+  </si>
+  <si>
+    <t>EXCHANGEMARGINFROZEN</t>
+  </si>
+  <si>
+    <t>EXCHANGEMARGINUSED</t>
+  </si>
+  <si>
+    <t>EXCHANGECOMMISION</t>
+  </si>
+  <si>
+    <t>EXCHANGECOMMISIONFROZEN</t>
+  </si>
+  <si>
+    <t>EXCHANGECLOSEPNL</t>
+  </si>
+  <si>
+    <t>EXCHANGEREALTIMEPNL</t>
+  </si>
+  <si>
+    <t>OPTIONBUYOPENLIMITAMT</t>
+  </si>
+  <si>
+    <t>SUMPNL</t>
+  </si>
+  <si>
+    <t>T2EXTRAUSABLEAMT</t>
+  </si>
+  <si>
+    <t>INITCHGUSABLEAMT</t>
+  </si>
+  <si>
+    <t>INITCHGT2AMT</t>
+  </si>
+  <si>
+    <t>TOTALCOMMISIONFEE</t>
+  </si>
+  <si>
+    <t>OPENFROZMARGIN</t>
+  </si>
+  <si>
+    <t>EXTTRADEPWD</t>
+  </si>
+  <si>
+    <t>SUBCREDITFUNDFLAG</t>
+  </si>
+  <si>
+    <t>RSMARGINAMT</t>
+  </si>
+  <si>
+    <t>RSMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>RSLENDCASHAMT</t>
+  </si>
+  <si>
+    <t>RSLENDCASHUSEDAMT</t>
+  </si>
+  <si>
+    <t>SZT2EXTRAUSABLEAMT</t>
+  </si>
+  <si>
+    <t>T1SHAREUSABLEAMT</t>
+  </si>
+  <si>
+    <t>USEDT1SHAREUSABLEDAMT</t>
+  </si>
+  <si>
+    <t>SZUSEDT1SHAREUSABLEDAMT</t>
+  </si>
+  <si>
+    <t>ACCESSMODE</t>
+  </si>
+  <si>
+    <t>OPTMARGINUSEDAMT</t>
+  </si>
+  <si>
+    <t>FASTUPDATECNT</t>
+  </si>
+  <si>
+    <t>UNDUEREPOAMT</t>
+  </si>
+  <si>
+    <t>CHANGEPWDDATE</t>
+  </si>
+  <si>
+    <t>CARRYFORWARDFLAG</t>
+  </si>
+  <si>
+    <t>CNYFUNDINGGAP</t>
+  </si>
+  <si>
+    <t>FOREIGNCURRENCYAMT</t>
+  </si>
+  <si>
+    <t>PREFOREIGNCURRENCYAMT</t>
+  </si>
+  <si>
+    <t>FOREIGNCURRENCYID</t>
+  </si>
+  <si>
+    <t>RELATEDACCTID</t>
+  </si>
+  <si>
+    <t>MORTGAGEAMT</t>
+  </si>
+  <si>
+    <t>MORTGAGECHGAMT</t>
+  </si>
+  <si>
+    <t>MORTGAGEMARGINAMT</t>
+  </si>
+  <si>
+    <t>MORTGAGEAVAILABLEAMT</t>
+  </si>
+  <si>
+    <t>EXCHMORTGAGEAVAILABLEAMT</t>
+  </si>
+  <si>
+    <t>TOTALMORTGAGEAMT</t>
+  </si>
+  <si>
+    <t>S5lEuv1P</t>
+  </si>
+  <si>
+    <t>10002655.480</t>
+  </si>
+  <si>
+    <t>0.0000000000000</t>
+  </si>
+  <si>
+    <t>10000000.000</t>
+  </si>
+  <si>
+    <t>20190108155221</t>
+  </si>
+  <si>
+    <t>0.0076000000</t>
+  </si>
+  <si>
+    <t>0.050000</t>
+  </si>
+  <si>
+    <t>1212</t>
+  </si>
+  <si>
+    <t>45645</t>
+  </si>
+  <si>
+    <t>20190108155220</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10002655.48</t>
+  </si>
+  <si>
+    <t>10000000.00</t>
+  </si>
+  <si>
+    <t>Level1</t>
+  </si>
+  <si>
+    <t>2601.900</t>
+  </si>
+  <si>
     <t>PARTICIPANTID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11721010</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CASHID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A004</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OFFERREGID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>OCCURAMT</t>
-  </si>
-  <si>
-    <t>EXCHTYPE</t>
-  </si>
-  <si>
-    <t>A004</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>S</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>Z</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>A005</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>ACCTPWD</t>
-  </si>
-  <si>
-    <t>MAINACCTFLAG</t>
-  </si>
-  <si>
-    <t>STKVALUE</t>
-  </si>
-  <si>
-    <t>MINMARGIN</t>
-  </si>
-  <si>
-    <t>PREVIOUSAMT</t>
-  </si>
-  <si>
-    <t>CURRENTAMT</t>
-  </si>
-  <si>
-    <t>CURRENTAMTCHKSUM</t>
-  </si>
-  <si>
-    <t>USABLEAMT</t>
-  </si>
-  <si>
-    <t>TRADEFROZENAMT</t>
-  </si>
-  <si>
-    <t>EXCEPTFROZENAMT</t>
-  </si>
-  <si>
-    <t>UNCOMEAMT</t>
-  </si>
-  <si>
-    <t>UNDELIVERYFUNDUSEFLAG</t>
-  </si>
-  <si>
-    <t>CHKAMT</t>
-  </si>
-  <si>
-    <t>CHECKASCASHAMT</t>
-  </si>
-  <si>
-    <t>FINANCEAMT</t>
-  </si>
-  <si>
-    <t>OVERDRAFTLIMIT</t>
-  </si>
-  <si>
-    <t>OVERDRAFTINTEREST</t>
-  </si>
-  <si>
-    <t>OVERDRAFTINTERESTRATE</t>
-  </si>
-  <si>
-    <t>CHKSAVESUM</t>
-  </si>
-  <si>
-    <t>CHKFETCHSUM</t>
-  </si>
-  <si>
-    <t>CASHSAVESUM</t>
-  </si>
-  <si>
-    <t>CASHFETCHSUM</t>
-  </si>
-  <si>
-    <t>LASTMODDATE</t>
-  </si>
-  <si>
-    <t>LASTPRINTDATE</t>
-  </si>
-  <si>
-    <t>FETCHMETHOD</t>
-  </si>
-  <si>
-    <t>DEPOSITRATE</t>
-  </si>
-  <si>
-    <t>RATEFLAG</t>
-  </si>
-  <si>
-    <t>INTEREST</t>
-  </si>
-  <si>
-    <t>INTERESTCOMPUTEDATE</t>
-  </si>
-  <si>
-    <t>INTERESTRATE</t>
-  </si>
-  <si>
-    <t>COOPPURCHASEFLAG</t>
-  </si>
-  <si>
-    <t>ACCTSTATUS</t>
-  </si>
-  <si>
-    <t>ACCTPERMITLIST</t>
-  </si>
-  <si>
-    <t>PERMITMAC</t>
-  </si>
-  <si>
-    <t>PERMITPHONE</t>
-  </si>
-  <si>
-    <t>BANKMORTGAGELOANAMT</t>
-  </si>
-  <si>
-    <t>EXCEPTIONINTERESTAMT</t>
-  </si>
-  <si>
-    <t>LOGOUTDATE</t>
-  </si>
-  <si>
-    <t>MAGCARDID</t>
-  </si>
-  <si>
-    <t>EXTMAGCARDID</t>
-  </si>
-  <si>
-    <t>MAGCARDUSEDFLAG</t>
-  </si>
-  <si>
-    <t>UNLOCKDATE</t>
-  </si>
-  <si>
-    <t>INTERESTTYPEID</t>
-  </si>
-  <si>
-    <t>BEGININTERESTDATE</t>
-  </si>
-  <si>
-    <t>ENDINTERESTDATE</t>
-  </si>
-  <si>
-    <t>TRADECHECKFLAG</t>
-  </si>
-  <si>
-    <t>RECKONINGCHECKFLAG</t>
-  </si>
-  <si>
-    <t>NEEDSETTLEAMT</t>
-  </si>
-  <si>
-    <t>ACCUREDINTERESTAMT</t>
-  </si>
-  <si>
-    <t>INTERESTAMOUNT</t>
-  </si>
-  <si>
-    <t>LOGINERRORCOUNT</t>
-  </si>
-  <si>
-    <t>CREDITFUNDFLAG</t>
-  </si>
-  <si>
-    <t>SHTRADENETAMT</t>
-  </si>
-  <si>
-    <t>SZTRADENETAMT</t>
-  </si>
-  <si>
-    <t>YDMARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>MARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>REALTIMEAMT</t>
-  </si>
-  <si>
-    <t>CASHMOVEMENTAMT</t>
-  </si>
-  <si>
-    <t>COMMISION</t>
-  </si>
-  <si>
-    <t>PLEDGEAMT</t>
-  </si>
-  <si>
-    <t>ACCTATRISKLEVEL</t>
-  </si>
-  <si>
-    <t>CUSTBRANCHID</t>
-  </si>
-  <si>
-    <t>EVERYRIGHTS</t>
-  </si>
-  <si>
-    <t>EVERYCURRENTAMT</t>
-  </si>
-  <si>
-    <t>EXCHMARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>EXCHMORTGAGEUSABLEAMT</t>
-  </si>
-  <si>
-    <t>MORTGAGEUSABLEAMT</t>
-  </si>
-  <si>
-    <t>BASEMARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>CONTRACTAMTTOTAL</t>
-  </si>
-  <si>
-    <t>YDEXCHMORTGAGEUSABLEAMT</t>
-  </si>
-  <si>
-    <t>YDMORTGAGEUSABLEAMT</t>
-  </si>
-  <si>
-    <t>CONTRACTINTERESTAMOUNT</t>
-  </si>
-  <si>
-    <t>POSITIONCONTRACTAMT</t>
-  </si>
-  <si>
-    <t>BEGININGAMT</t>
-  </si>
-  <si>
-    <t>BUYTRADEFROZENAMT</t>
-  </si>
-  <si>
-    <t>SUBCUSTODYFLAG</t>
-  </si>
-  <si>
-    <t>MAINACCTID</t>
-  </si>
-  <si>
-    <t>ECONTRACTSIGNFLAG</t>
-  </si>
-  <si>
-    <t>TUSABLEAMT</t>
-  </si>
-  <si>
-    <t>TODAYREPOAMT</t>
-  </si>
-  <si>
-    <t>REPOAMT</t>
-  </si>
-  <si>
-    <t>ASSETAMT</t>
-  </si>
-  <si>
-    <t>LEVEL2FLAG</t>
-  </si>
-  <si>
-    <t>MULTINSTANCEID</t>
-  </si>
-  <si>
-    <t>DELIVERYMARGINAMT</t>
-  </si>
-  <si>
-    <t>DELIVERYCOMMISION</t>
-  </si>
-  <si>
-    <t>EXCHANGETOTALAMT</t>
-  </si>
-  <si>
-    <t>EXCHANGEUSEAMT</t>
-  </si>
-  <si>
-    <t>EXCHANGEMARGINFROZEN</t>
-  </si>
-  <si>
-    <t>EXCHANGEMARGINUSED</t>
-  </si>
-  <si>
-    <t>EXCHANGECOMMISION</t>
-  </si>
-  <si>
-    <t>EXCHANGECOMMISIONFROZEN</t>
-  </si>
-  <si>
-    <t>EXCHANGECLOSEPNL</t>
-  </si>
-  <si>
-    <t>EXCHANGEREALTIMEPNL</t>
-  </si>
-  <si>
-    <t>OPTIONBUYOPENLIMITAMT</t>
-  </si>
-  <si>
-    <t>SUMPNL</t>
-  </si>
-  <si>
-    <t>T2EXTRAUSABLEAMT</t>
-  </si>
-  <si>
-    <t>INITCHGUSABLEAMT</t>
-  </si>
-  <si>
-    <t>INITCHGT2AMT</t>
-  </si>
-  <si>
-    <t>TOTALCOMMISIONFEE</t>
-  </si>
-  <si>
-    <t>OPENFROZMARGIN</t>
-  </si>
-  <si>
-    <t>EXTTRADEPWD</t>
-  </si>
-  <si>
-    <t>SUBCREDITFUNDFLAG</t>
-  </si>
-  <si>
-    <t>RSMARGINAMT</t>
-  </si>
-  <si>
-    <t>RSMARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>RSLENDCASHAMT</t>
-  </si>
-  <si>
-    <t>RSLENDCASHUSEDAMT</t>
-  </si>
-  <si>
-    <t>SZT2EXTRAUSABLEAMT</t>
-  </si>
-  <si>
-    <t>T1SHAREUSABLEAMT</t>
-  </si>
-  <si>
-    <t>USEDT1SHAREUSABLEDAMT</t>
-  </si>
-  <si>
-    <t>SZUSEDT1SHAREUSABLEDAMT</t>
-  </si>
-  <si>
-    <t>ACCESSMODE</t>
-  </si>
-  <si>
-    <t>OPTMARGINUSEDAMT</t>
-  </si>
-  <si>
-    <t>FASTUPDATECNT</t>
-  </si>
-  <si>
-    <t>UNDUEREPOAMT</t>
-  </si>
-  <si>
-    <t>CHANGEPWDDATE</t>
-  </si>
-  <si>
-    <t>CARRYFORWARDFLAG</t>
-  </si>
-  <si>
-    <t>CNYFUNDINGGAP</t>
-  </si>
-  <si>
-    <t>FOREIGNCURRENCYAMT</t>
-  </si>
-  <si>
-    <t>PREFOREIGNCURRENCYAMT</t>
-  </si>
-  <si>
-    <t>FOREIGNCURRENCYID</t>
-  </si>
-  <si>
-    <t>RELATEDACCTID</t>
-  </si>
-  <si>
-    <t>MORTGAGEAMT</t>
-  </si>
-  <si>
-    <t>MORTGAGECHGAMT</t>
-  </si>
-  <si>
-    <t>MORTGAGEMARGINAMT</t>
-  </si>
-  <si>
-    <t>MORTGAGEAVAILABLEAMT</t>
-  </si>
-  <si>
-    <t>EXCHMORTGAGEAVAILABLEAMT</t>
-  </si>
-  <si>
-    <t>TOTALMORTGAGEAMT</t>
-  </si>
-  <si>
-    <t>S5lEuv1P</t>
-  </si>
-  <si>
-    <t>10002655.480</t>
-  </si>
-  <si>
-    <t>0.0000000000000</t>
-  </si>
-  <si>
-    <t>10000000.000</t>
-  </si>
-  <si>
-    <t>20190108155221</t>
-  </si>
-  <si>
-    <t>0.0076000000</t>
-  </si>
-  <si>
-    <t>0.050000</t>
-  </si>
-  <si>
-    <t>1212</t>
-  </si>
-  <si>
-    <t>45645</t>
-  </si>
-  <si>
-    <t>20190108155220</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10002655.48</t>
-  </si>
-  <si>
-    <t>10000000.00</t>
-  </si>
-  <si>
-    <t>Level1</t>
-  </si>
-  <si>
-    <t>2601.900</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20230209000000</t>
+  </si>
+  <si>
+    <t>6507.280</t>
+  </si>
+  <si>
+    <t>7805.460</t>
+  </si>
+  <si>
+    <t>9105.200</t>
+  </si>
+  <si>
+    <t>10406.760</t>
+  </si>
+  <si>
+    <t>205_003_036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="21">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -976,352 +1010,28 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1329,311 +1039,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1920,111 +1344,111 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CX23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="N18" sqref="N18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="10.75" customWidth="1"/>
     <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="11.8888888888889" customWidth="1"/>
-    <col min="4" max="5" width="16.4444444444444" customWidth="1"/>
-    <col min="6" max="7" width="7.66666666666667" customWidth="1"/>
+    <col min="3" max="3" width="11.875" customWidth="1"/>
+    <col min="4" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="7" width="7.625" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
-    <col min="9" max="9" width="9.66666666666667" customWidth="1"/>
-    <col min="10" max="10" width="14.1111111111111" customWidth="1"/>
-    <col min="11" max="11" width="11.8888888888889" customWidth="1"/>
-    <col min="12" max="12" width="9.66666666666667" customWidth="1"/>
-    <col min="13" max="13" width="7.66666666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.1111111111111" customWidth="1"/>
-    <col min="15" max="15" width="11.8888888888889" customWidth="1"/>
-    <col min="16" max="16" width="9.66666666666667" customWidth="1"/>
-    <col min="17" max="17" width="11.8888888888889" customWidth="1"/>
+    <col min="9" max="9" width="9.625" customWidth="1"/>
+    <col min="10" max="10" width="14.125" customWidth="1"/>
+    <col min="11" max="11" width="11.875" customWidth="1"/>
+    <col min="12" max="12" width="9.625" customWidth="1"/>
+    <col min="13" max="13" width="7.625" customWidth="1"/>
+    <col min="14" max="14" width="14.125" customWidth="1"/>
+    <col min="15" max="15" width="11.875" customWidth="1"/>
+    <col min="16" max="16" width="9.625" customWidth="1"/>
+    <col min="17" max="17" width="11.875" customWidth="1"/>
     <col min="18" max="18" width="13" customWidth="1"/>
-    <col min="19" max="19" width="6.66666666666667" customWidth="1"/>
-    <col min="20" max="20" width="8.66666666666667" customWidth="1"/>
-    <col min="21" max="22" width="7.66666666666667" customWidth="1"/>
-    <col min="23" max="23" width="17.5555555555556" customWidth="1"/>
-    <col min="24" max="24" width="20.8888888888889" customWidth="1"/>
-    <col min="25" max="25" width="10.7777777777778" customWidth="1"/>
-    <col min="26" max="26" width="9.66666666666667" customWidth="1"/>
+    <col min="19" max="19" width="6.625" customWidth="1"/>
+    <col min="20" max="20" width="8.625" customWidth="1"/>
+    <col min="21" max="22" width="7.625" customWidth="1"/>
+    <col min="23" max="23" width="17.5" customWidth="1"/>
+    <col min="24" max="24" width="20.875" customWidth="1"/>
+    <col min="25" max="25" width="10.75" customWidth="1"/>
+    <col min="26" max="26" width="9.625" customWidth="1"/>
     <col min="27" max="27" width="13" customWidth="1"/>
-    <col min="28" max="28" width="9.66666666666667" customWidth="1"/>
-    <col min="29" max="29" width="10.7777777777778" customWidth="1"/>
-    <col min="30" max="30" width="14.1111111111111" customWidth="1"/>
-    <col min="31" max="31" width="17.5555555555556" customWidth="1"/>
-    <col min="32" max="32" width="8.66666666666667" customWidth="1"/>
-    <col min="33" max="36" width="15.2222222222222" customWidth="1"/>
-    <col min="37" max="37" width="9.66666666666667" customWidth="1"/>
+    <col min="28" max="28" width="9.625" customWidth="1"/>
+    <col min="29" max="29" width="10.75" customWidth="1"/>
+    <col min="30" max="30" width="14.125" customWidth="1"/>
+    <col min="31" max="31" width="17.5" customWidth="1"/>
+    <col min="32" max="32" width="8.625" customWidth="1"/>
+    <col min="33" max="36" width="15.25" customWidth="1"/>
+    <col min="37" max="37" width="9.625" customWidth="1"/>
     <col min="38" max="38" width="13" customWidth="1"/>
-    <col min="39" max="39" width="14.1111111111111" customWidth="1"/>
+    <col min="39" max="39" width="14.125" customWidth="1"/>
     <col min="40" max="40" width="13" customWidth="1"/>
-    <col min="41" max="41" width="14.1111111111111" customWidth="1"/>
-    <col min="42" max="42" width="8.66666666666667" customWidth="1"/>
-    <col min="43" max="44" width="16.4444444444444" customWidth="1"/>
-    <col min="45" max="45" width="15.2222222222222" customWidth="1"/>
-    <col min="46" max="46" width="9.66666666666667" customWidth="1"/>
+    <col min="41" max="41" width="14.125" customWidth="1"/>
+    <col min="42" max="42" width="8.625" customWidth="1"/>
+    <col min="43" max="44" width="16.5" customWidth="1"/>
+    <col min="45" max="45" width="15.25" customWidth="1"/>
+    <col min="46" max="46" width="9.625" customWidth="1"/>
     <col min="47" max="47" width="13" customWidth="1"/>
-    <col min="48" max="50" width="11.8888888888889" customWidth="1"/>
+    <col min="48" max="50" width="11.875" customWidth="1"/>
     <col min="51" max="51" width="13" customWidth="1"/>
-    <col min="52" max="52" width="8.66666666666667" customWidth="1"/>
-    <col min="53" max="53" width="5.66666666666667" customWidth="1"/>
+    <col min="52" max="52" width="8.625" customWidth="1"/>
+    <col min="53" max="53" width="5.625" customWidth="1"/>
     <col min="54" max="54" width="13" customWidth="1"/>
-    <col min="55" max="55" width="9.66666666666667" customWidth="1"/>
-    <col min="56" max="56" width="15.2222222222222" customWidth="1"/>
-    <col min="57" max="57" width="9.66666666666667" customWidth="1"/>
-    <col min="58" max="58" width="18.6666666666667" customWidth="1"/>
-    <col min="59" max="59" width="19.7777777777778" customWidth="1"/>
-    <col min="60" max="60" width="18.6666666666667" customWidth="1"/>
-    <col min="61" max="61" width="16.4444444444444" customWidth="1"/>
-    <col min="62" max="62" width="9.66666666666667" customWidth="1"/>
-    <col min="63" max="63" width="17.5555555555556" customWidth="1"/>
-    <col min="64" max="64" width="8.66666666666667" customWidth="1"/>
-    <col min="65" max="65" width="17.5555555555556" customWidth="1"/>
-    <col min="66" max="66" width="16.4444444444444" customWidth="1"/>
-    <col min="67" max="67" width="19.7777777777778" customWidth="1"/>
-    <col min="68" max="68" width="18.6666666666667" customWidth="1"/>
-    <col min="69" max="69" width="17.5555555555556" customWidth="1"/>
-    <col min="70" max="70" width="16.4444444444444" customWidth="1"/>
-    <col min="71" max="71" width="9.66666666666667" customWidth="1"/>
-    <col min="72" max="72" width="14.1111111111111" customWidth="1"/>
-    <col min="73" max="73" width="18.6666666666667" customWidth="1"/>
-    <col min="74" max="74" width="16.4444444444444" customWidth="1"/>
-    <col min="75" max="76" width="17.5555555555556" customWidth="1"/>
-    <col min="77" max="77" width="7.66666666666667" customWidth="1"/>
-    <col min="78" max="79" width="10.7777777777778" customWidth="1"/>
-    <col min="80" max="80" width="9.66666666666667" customWidth="1"/>
-    <col min="81" max="81" width="6.66666666666667" customWidth="1"/>
-    <col min="82" max="82" width="9.66666666666667" customWidth="1"/>
+    <col min="55" max="55" width="9.625" customWidth="1"/>
+    <col min="56" max="56" width="15.25" customWidth="1"/>
+    <col min="57" max="57" width="9.625" customWidth="1"/>
+    <col min="58" max="58" width="18.625" customWidth="1"/>
+    <col min="59" max="59" width="19.75" customWidth="1"/>
+    <col min="60" max="60" width="18.625" customWidth="1"/>
+    <col min="61" max="61" width="16.5" customWidth="1"/>
+    <col min="62" max="62" width="9.625" customWidth="1"/>
+    <col min="63" max="63" width="17.5" customWidth="1"/>
+    <col min="64" max="64" width="8.625" customWidth="1"/>
+    <col min="65" max="65" width="17.5" customWidth="1"/>
+    <col min="66" max="66" width="16.5" customWidth="1"/>
+    <col min="67" max="67" width="19.75" customWidth="1"/>
+    <col min="68" max="68" width="18.625" customWidth="1"/>
+    <col min="69" max="69" width="17.5" customWidth="1"/>
+    <col min="70" max="70" width="16.5" customWidth="1"/>
+    <col min="71" max="71" width="9.625" customWidth="1"/>
+    <col min="72" max="72" width="14.125" customWidth="1"/>
+    <col min="73" max="73" width="18.625" customWidth="1"/>
+    <col min="74" max="74" width="16.5" customWidth="1"/>
+    <col min="75" max="76" width="17.5" customWidth="1"/>
+    <col min="77" max="77" width="7.625" customWidth="1"/>
+    <col min="78" max="79" width="10.75" customWidth="1"/>
+    <col min="80" max="80" width="9.625" customWidth="1"/>
+    <col min="81" max="81" width="6.625" customWidth="1"/>
+    <col min="82" max="82" width="9.625" customWidth="1"/>
     <col min="83" max="83" width="13" customWidth="1"/>
-    <col min="84" max="84" width="15.2222222222222" customWidth="1"/>
-    <col min="85" max="85" width="8.66666666666667" customWidth="1"/>
-    <col min="86" max="86" width="17.5555555555556" customWidth="1"/>
-    <col min="87" max="87" width="11.8888888888889" customWidth="1"/>
-    <col min="88" max="88" width="9.66666666666667" customWidth="1"/>
+    <col min="84" max="84" width="15.25" customWidth="1"/>
+    <col min="85" max="85" width="8.625" customWidth="1"/>
+    <col min="86" max="86" width="17.5" customWidth="1"/>
+    <col min="87" max="87" width="11.875" customWidth="1"/>
+    <col min="88" max="88" width="9.625" customWidth="1"/>
     <col min="89" max="91" width="13" customWidth="1"/>
-    <col min="92" max="93" width="11.8888888888889" customWidth="1"/>
-    <col min="94" max="94" width="16.4444444444444" customWidth="1"/>
-    <col min="95" max="95" width="11.8888888888889" customWidth="1"/>
-    <col min="96" max="96" width="16.4444444444444" customWidth="1"/>
-    <col min="97" max="97" width="8.66666666666667" customWidth="1"/>
+    <col min="92" max="93" width="11.875" customWidth="1"/>
+    <col min="94" max="94" width="16.5" customWidth="1"/>
+    <col min="95" max="95" width="11.875" customWidth="1"/>
+    <col min="96" max="96" width="16.5" customWidth="1"/>
+    <col min="97" max="97" width="8.625" customWidth="1"/>
     <col min="98" max="98" width="13" customWidth="1"/>
-    <col min="99" max="99" width="20.8888888888889" customWidth="1"/>
-    <col min="100" max="100" width="14.1111111111111" customWidth="1"/>
+    <col min="99" max="99" width="20.875" customWidth="1"/>
+    <col min="100" max="100" width="14.125" customWidth="1"/>
     <col min="101" max="101" width="13" customWidth="1"/>
     <col min="102" max="102" width="22" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:102">
+    <row r="1" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2332,12 +1756,12 @@
         <v>101</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:102">
+    <row r="2" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>103</v>
+        <v>320</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>104</v>
@@ -2360,9 +1784,6 @@
       <c r="L2" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N2" s="1" t="s">
         <v>108</v>
       </c>
@@ -2550,7 +1971,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:102">
+    <row r="3" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
         <v>130</v>
       </c>
@@ -2578,9 +1999,6 @@
       <c r="L3" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N3" s="1" t="s">
         <v>108</v>
       </c>
@@ -2768,7 +2186,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:102">
+    <row r="4" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>133</v>
       </c>
@@ -2796,9 +2214,6 @@
       <c r="L4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N4" s="1" t="s">
         <v>108</v>
       </c>
@@ -2986,7 +2401,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:102">
+    <row r="5" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
         <v>136</v>
       </c>
@@ -3014,9 +2429,6 @@
       <c r="L5" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M5" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N5" s="1" t="s">
         <v>108</v>
       </c>
@@ -3204,7 +2616,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:102">
+    <row r="6" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>139</v>
       </c>
@@ -3232,9 +2644,6 @@
       <c r="L6" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M6" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N6" s="1" t="s">
         <v>108</v>
       </c>
@@ -3422,7 +2831,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:102">
+    <row r="7" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>143</v>
       </c>
@@ -3450,9 +2859,6 @@
       <c r="L7" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N7" s="1" t="s">
         <v>108</v>
       </c>
@@ -3640,7 +3046,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:102">
+    <row r="8" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
         <v>146</v>
       </c>
@@ -3668,9 +3074,6 @@
       <c r="L8" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N8" s="1" t="s">
         <v>108</v>
       </c>
@@ -3858,7 +3261,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:102">
+    <row r="9" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>149</v>
       </c>
@@ -3886,9 +3289,6 @@
       <c r="L9" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="M9" s="1" t="s">
-        <v>111</v>
-      </c>
       <c r="N9" s="1" t="s">
         <v>108</v>
       </c>
@@ -4076,79 +3476,76 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
-    <row r="20" s="1" customFormat="1"/>
-    <row r="21" s="1" customFormat="1"/>
-    <row r="22" s="1" customFormat="1"/>
-    <row r="23" s="1" customFormat="1"/>
+    <row r="10" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:102" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="A1:CX9">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:CX9"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>153</v>
+        <v>309</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>154</v>
+        <v>311</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>155</v>
+        <v>314</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>16</v>
+        <v>313</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:8">
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>112</v>
+        <v>310</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>157</v>
+        <v>312</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>117</v>
@@ -4160,18 +3557,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" spans="1:8">
+    <row r="3" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>131</v>
@@ -4183,18 +3580,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:8">
+    <row r="4" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>134</v>
@@ -4206,18 +3603,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:8">
+    <row r="5" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>137</v>
@@ -4229,9 +3626,9 @@
         <v>123</v>
       </c>
     </row>
-    <row r="6" s="1" customFormat="1" spans="1:8">
+    <row r="6" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>112</v>
@@ -4240,7 +3637,7 @@
         <v>111</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>141</v>
@@ -4252,18 +3649,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" spans="1:8">
+    <row r="7" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>144</v>
@@ -4275,18 +3672,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="8" s="1" customFormat="1" spans="1:8">
+    <row r="8" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>147</v>
@@ -4298,18 +3695,18 @@
         <v>123</v>
       </c>
     </row>
-    <row r="9" s="1" customFormat="1" spans="1:8">
+    <row r="9" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>150</v>
@@ -4321,35 +3718,34 @@
         <v>123</v>
       </c>
     </row>
-    <row r="10" s="1" customFormat="1"/>
-    <row r="11" s="1" customFormat="1"/>
-    <row r="12" s="1" customFormat="1"/>
-    <row r="13" s="1" customFormat="1"/>
-    <row r="14" s="1" customFormat="1"/>
-    <row r="15" s="1" customFormat="1"/>
-    <row r="16" s="1" customFormat="1"/>
-    <row r="17" s="1" customFormat="1"/>
-    <row r="18" s="1" customFormat="1"/>
-    <row r="19" s="1" customFormat="1"/>
+    <row r="10" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:EQ4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:147">
+    <row r="1" spans="1:147" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>152</v>
       </c>
@@ -4360,94 +3756,94 @@
         <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>190</v>
       </c>
       <c r="AB1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="AC1" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF1" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>195</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>85</v>
@@ -4456,67 +3852,67 @@
         <v>86</v>
       </c>
       <c r="AJ1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>201</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>203</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="AS1" s="1" t="s">
         <v>41</v>
       </c>
       <c r="AT1" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="AU1" s="1" t="s">
         <v>92</v>
       </c>
       <c r="AV1" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="AW1" s="1" t="s">
         <v>52</v>
       </c>
       <c r="AX1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="BA1" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="BE1" s="1" t="s">
         <v>43</v>
@@ -4525,274 +3921,274 @@
         <v>44</v>
       </c>
       <c r="BG1" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>223</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>226</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="BU1" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="BV1" s="1" t="s">
         <v>37</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="BX1" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="BY1" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="BZ1" s="1" t="s">
         <v>57</v>
       </c>
       <c r="CA1" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="CB1" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="CC1" s="1" t="s">
         <v>56</v>
       </c>
       <c r="CD1" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="CE1" s="1" t="s">
         <v>32</v>
       </c>
       <c r="CF1" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="CI1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="CG1" s="1" t="s">
+      <c r="CJ1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CK1" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="CI1" s="1" t="s">
+      <c r="CL1" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="CJ1" s="1" t="s">
+      <c r="CM1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="CK1" s="1" t="s">
+      <c r="CN1" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="CL1" s="1" t="s">
+      <c r="CO1" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="CM1" s="1" t="s">
+      <c r="CP1" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="CN1" s="1" t="s">
+      <c r="CQ1" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="CO1" s="1" t="s">
+      <c r="CR1" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="CP1" s="1" t="s">
+      <c r="CS1" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="CQ1" s="1" t="s">
+      <c r="CT1" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="CR1" s="1" t="s">
+      <c r="CU1" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="CS1" s="1" t="s">
+      <c r="CV1" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="CT1" s="1" t="s">
+      <c r="CW1" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="CU1" s="1" t="s">
+      <c r="CX1" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="CV1" s="1" t="s">
+      <c r="CY1" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="CW1" s="1" t="s">
+      <c r="CZ1" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="CX1" s="1" t="s">
+      <c r="DA1" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="CY1" s="1" t="s">
+      <c r="DB1" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>256</v>
       </c>
       <c r="DC1" s="1" t="s">
         <v>96</v>
       </c>
       <c r="DD1" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="DE1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="DF1" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="DG1" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="DE1" s="1" t="s">
+      <c r="DH1" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="DF1" s="1" t="s">
+      <c r="DI1" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="DG1" s="1" t="s">
+      <c r="DJ1" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="DH1" s="1" t="s">
+      <c r="DK1" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="DI1" s="1" t="s">
+      <c r="DL1" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="DJ1" s="1" t="s">
+      <c r="DM1" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="DK1" s="1" t="s">
+      <c r="DN1" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="DL1" s="1" t="s">
+      <c r="DO1" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="DM1" s="1" t="s">
+      <c r="DP1" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="DN1" s="1" t="s">
+      <c r="DQ1" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="DO1" s="1" t="s">
+      <c r="DR1" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="DP1" s="1" t="s">
+      <c r="DS1" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="DQ1" s="1" t="s">
+      <c r="DT1" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="DR1" s="1" t="s">
+      <c r="DU1" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="DS1" s="1" t="s">
+      <c r="DV1" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="DT1" s="1" t="s">
+      <c r="DW1" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="DU1" s="1" t="s">
+      <c r="DX1" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="DV1" s="1" t="s">
+      <c r="DY1" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="DW1" s="1" t="s">
+      <c r="DZ1" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="DX1" s="1" t="s">
+      <c r="EA1" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="DY1" s="1" t="s">
+      <c r="EB1" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="DZ1" s="1" t="s">
+      <c r="EC1" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="EA1" s="1" t="s">
+      <c r="ED1" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="EB1" s="1" t="s">
+      <c r="EE1" s="1" t="s">
         <v>281</v>
       </c>
-      <c r="EC1" s="1" t="s">
+      <c r="EF1" s="1" t="s">
         <v>282</v>
       </c>
-      <c r="ED1" s="1" t="s">
+      <c r="EG1" s="1" t="s">
         <v>283</v>
       </c>
-      <c r="EE1" s="1" t="s">
+      <c r="EH1" s="1" t="s">
         <v>284</v>
       </c>
-      <c r="EF1" s="1" t="s">
+      <c r="EI1" s="1" t="s">
         <v>285</v>
       </c>
-      <c r="EG1" s="1" t="s">
+      <c r="EJ1" s="1" t="s">
         <v>286</v>
       </c>
-      <c r="EH1" s="1" t="s">
+      <c r="EK1" s="1" t="s">
         <v>287</v>
       </c>
-      <c r="EI1" s="1" t="s">
+      <c r="EL1" s="1" t="s">
         <v>288</v>
       </c>
-      <c r="EJ1" s="1" t="s">
+      <c r="EM1" s="1" t="s">
         <v>289</v>
       </c>
-      <c r="EK1" s="1" t="s">
+      <c r="EN1" s="1" t="s">
         <v>290</v>
       </c>
-      <c r="EL1" s="1" t="s">
+      <c r="EO1" s="1" t="s">
         <v>291</v>
       </c>
-      <c r="EM1" s="1" t="s">
+      <c r="EP1" s="1" t="s">
         <v>292</v>
       </c>
-      <c r="EN1" s="1" t="s">
+      <c r="EQ1" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="EO1" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="EP1" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="EQ1" s="1" t="s">
-        <v>296</v>
-      </c>
     </row>
-    <row r="2" s="1" customFormat="1" spans="1:147">
+    <row r="2" spans="1:147" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
@@ -4803,7 +4199,7 @@
         <v>109</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>108</v>
@@ -4824,10 +4220,10 @@
         <v>116</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N2" s="1" t="s">
         <v>116</v>
@@ -4857,7 +4253,7 @@
         <v>113</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>116</v>
@@ -4866,13 +4262,13 @@
         <v>116</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="AA2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AB2" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="AC2" s="1" t="s">
         <v>124</v>
@@ -4884,7 +4280,7 @@
         <v>114</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="AG2" s="1" t="s">
         <v>123</v>
@@ -4902,7 +4298,7 @@
         <v>124</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AM2" s="1" t="s">
         <v>114</v>
@@ -4911,13 +4307,13 @@
         <v>114</v>
       </c>
       <c r="AQ2" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AR2" s="1" t="s">
         <v>116</v>
       </c>
       <c r="AS2" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="AT2" s="1" t="s">
         <v>116</v>
@@ -4938,10 +4334,10 @@
         <v>114</v>
       </c>
       <c r="BC2" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="BE2" s="1" t="s">
         <v>124</v>
@@ -4968,107 +4364,107 @@
         <v>114</v>
       </c>
       <c r="BM2" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="BN2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BR2" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="BS2" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="BT2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BU2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BW2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="BZ2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CA2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="CC2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CD2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CE2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CF2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CG2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CI2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CJ2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CK2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CL2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CM2" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CO2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CP2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="CR2" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="CS2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CU2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CV2" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="CW2" s="1" t="s">
         <v>307</v>
       </c>
-      <c r="BN2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>310</v>
-      </c>
       <c r="CX2" s="1" t="s">
         <v>114</v>
       </c>
@@ -5127,7 +4523,7 @@
         <v>116</v>
       </c>
       <c r="DQ2" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="DR2" s="1" t="s">
         <v>114</v>
@@ -5184,10 +4580,10 @@
         <v>116</v>
       </c>
       <c r="EL2" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="EM2" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="EN2" s="1" t="s">
         <v>116</v>
@@ -5202,11 +4598,159 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1"/>
-    <row r="4" s="1" customFormat="1"/>
+    <row r="3" spans="1:147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:147" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="17" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="18" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="19" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="20" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="21" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="22" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="23" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="24" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="25" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="26" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="27" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="28" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+    <row r="29" s="1" customFormat="1" x14ac:dyDescent="0.15"/>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>